--- a/Simple_XLS_Importer/data/IFPRI-GHI/IFPRI-GHI-Child_Wasting.xlsx
+++ b/Simple_XLS_Importer/data/IFPRI-GHI/IFPRI-GHI-Child_Wasting.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="525" windowWidth="17415" windowHeight="5835"/>
+    <workbookView xWindow="750" yWindow="525" windowWidth="17415" windowHeight="5835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
     <sheet name="metadata" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -359,9 +359,6 @@
     <t>IFPRI</t>
   </si>
   <si>
-    <t>DAT-0</t>
-  </si>
-  <si>
     <t>LBY</t>
   </si>
   <si>
@@ -429,6 +426,9 @@
   </si>
   <si>
     <t>VEN</t>
+  </si>
+  <si>
+    <t>GHI</t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -828,7 +828,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3">
         <v>2015</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3">
         <v>1995</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3">
         <v>2000</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="3">
         <v>2005</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="41" spans="1:3" ht="12.75">
       <c r="A41" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B41" s="3">
         <v>2015</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="42" spans="1:3" ht="12.75">
       <c r="A42" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="3">
         <v>1990</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="43" spans="1:3" ht="12.75">
       <c r="A43" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="3">
         <v>1995</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="44" spans="1:3" ht="12.75">
       <c r="A44" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" s="3">
         <v>2000</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="58" spans="1:3" ht="12.75">
       <c r="A58" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" s="3">
         <v>2015</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="59" spans="1:3" ht="12.75">
       <c r="A59" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59" s="3">
         <v>1990</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="60" spans="1:3" ht="12.75">
       <c r="A60" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60" s="3">
         <v>1995</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="61" spans="1:3" ht="12.75">
       <c r="A61" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B61" s="3">
         <v>2000</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="88" spans="1:3" ht="12.75">
       <c r="A88" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" s="3">
         <v>2015</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="89" spans="1:3" ht="12.75">
       <c r="A89" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B89" s="3">
         <v>1990</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="90" spans="1:3" ht="12.75">
       <c r="A90" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B90" s="3">
         <v>1995</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="91" spans="1:3" ht="12.75">
       <c r="A91" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B91" s="3">
         <v>2000</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="126" spans="1:3" ht="12.75">
       <c r="A126" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B126" s="3">
         <v>2015</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="127" spans="1:3" ht="12.75">
       <c r="A127" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B127" s="3">
         <v>1990</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="128" spans="1:3" ht="12.75">
       <c r="A128" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B128" s="3">
         <v>1995</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="129" spans="1:3" ht="12.75">
       <c r="A129" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B129" s="3">
         <v>2000</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="130" spans="1:3" ht="12.75">
       <c r="A130" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B130" s="3">
         <v>2005</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="156" spans="1:3" ht="12.75">
       <c r="A156" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B156" s="3">
         <v>2015</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="157" spans="1:3" ht="12.75">
       <c r="A157" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B157" s="3">
         <v>1990</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="158" spans="1:3" ht="12.75">
       <c r="A158" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B158" s="3">
         <v>1995</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="159" spans="1:3" ht="12.75">
       <c r="A159" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B159" s="3">
         <v>2000</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="160" spans="1:3" ht="12.75">
       <c r="A160" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B160" s="3">
         <v>2005</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="183" spans="1:3" ht="12.75">
       <c r="A183" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B183" s="3">
         <v>2015</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="184" spans="1:3" ht="12.75">
       <c r="A184" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B184" s="3">
         <v>1995</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="185" spans="1:3" ht="12.75">
       <c r="A185" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B185" s="3">
         <v>2000</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="186" spans="1:3" ht="12.75">
       <c r="A186" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B186" s="3">
         <v>2005</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="409" spans="1:3" ht="12.75">
       <c r="A409" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B409" s="3">
         <v>2015</v>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="410" spans="1:3" ht="12.75">
       <c r="A410" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B410" s="3">
         <v>1990</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="411" spans="1:3" ht="12.75">
       <c r="A411" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B411" s="3">
         <v>1995</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="412" spans="1:3" ht="12.75">
       <c r="A412" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B412" s="3">
         <v>2000</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="413" spans="1:3" ht="12.75">
       <c r="A413" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B413" s="3">
         <v>2005</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="426" spans="1:3" ht="12.75">
       <c r="A426" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B426" s="3">
         <v>2015</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="427" spans="1:3" ht="12.75">
       <c r="A427" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B427" s="3">
         <v>1995</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="428" spans="1:3" ht="12.75">
       <c r="A428" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B428" s="3">
         <v>2000</v>
@@ -5525,7 +5525,7 @@
     </row>
     <row r="429" spans="1:3" ht="12.75">
       <c r="A429" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B429" s="3">
         <v>2005</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="462" spans="1:3" ht="12.75">
       <c r="A462" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B462" s="3">
         <v>2000</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="463" spans="1:3" ht="12.75">
       <c r="A463" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B463" s="3">
         <v>2005</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="464" spans="1:3" ht="12.75">
       <c r="A464" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B464" s="3">
         <v>2015</v>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="470" spans="1:3" ht="12.75">
       <c r="A470" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B470" s="3">
         <v>2015</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="478" spans="1:3" ht="12.75">
       <c r="A478" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B478" s="3">
         <v>1995</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="479" spans="1:3" ht="12.75">
       <c r="A479" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B479" s="3">
         <v>2000</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="480" spans="1:3" ht="12.75">
       <c r="A480" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B480" s="3">
         <v>2005</v>
@@ -6361,7 +6361,7 @@
     </row>
     <row r="505" spans="1:3" ht="12.75">
       <c r="A505" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B505" s="3">
         <v>2015</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="506" spans="1:3" ht="12.75">
       <c r="A506" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B506" s="3">
         <v>1990</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="507" spans="1:3" ht="12.75">
       <c r="A507" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B507" s="3">
         <v>1995</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="508" spans="1:3" ht="12.75">
       <c r="A508" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B508" s="3">
         <v>2000</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="509" spans="1:3" ht="12.75">
       <c r="A509" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B509" s="3">
         <v>2005</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="510" spans="1:3" ht="12.75">
       <c r="A510" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B510" s="3">
         <v>2015</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="511" spans="1:3" ht="12.75">
       <c r="A511" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B511" s="3">
         <v>1990</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="512" spans="1:3" ht="12.75">
       <c r="A512" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B512" s="3">
         <v>1995</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="513" spans="1:3" ht="12.75">
       <c r="A513" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B513" s="3">
         <v>2005</v>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="514" spans="1:3" ht="12.75">
       <c r="A514" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B514" s="3">
         <v>2015</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="515" spans="1:3" ht="12.75">
       <c r="A515" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B515" s="3">
         <v>1995</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="516" spans="1:3" ht="12.75">
       <c r="A516" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B516" s="3">
         <v>2000</v>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="517" spans="1:3" ht="12.75">
       <c r="A517" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B517" s="3">
         <v>2005</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="518" spans="1:3" ht="12.75">
       <c r="A518" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B518" s="3">
         <v>2015</v>
@@ -6515,7 +6515,7 @@
     </row>
     <row r="519" spans="1:3" ht="12.75">
       <c r="A519" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B519" s="3">
         <v>1990</v>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="520" spans="1:3" ht="12.75">
       <c r="A520" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B520" s="3">
         <v>1995</v>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="521" spans="1:3" ht="12.75">
       <c r="A521" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B521" s="3">
         <v>2005</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="522" spans="1:3" ht="12.75">
       <c r="A522" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B522" s="3">
         <v>2015</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="523" spans="1:3" ht="12.75">
       <c r="A523" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B523" s="3">
         <v>1995</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="524" spans="1:3" ht="12.75">
       <c r="A524" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B524" s="3">
         <v>2000</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="525" spans="1:3" ht="12.75">
       <c r="A525" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B525" s="3">
         <v>2005</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="526" spans="1:3" ht="12.75">
       <c r="A526" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B526" s="3">
         <v>2015</v>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="527" spans="1:3" ht="12.75">
       <c r="A527" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B527" s="3">
         <v>1990</v>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="528" spans="1:3" ht="12.75">
       <c r="A528" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B528" s="3">
         <v>1995</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="529" spans="1:3" ht="12.75">
       <c r="A529" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B529" s="3">
         <v>2000</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="530" spans="1:3" ht="12.75">
       <c r="A530" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B530" s="3">
         <v>2005</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="531" spans="1:3" ht="12.75">
       <c r="A531" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B531" s="3">
         <v>2015</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="532" spans="1:3" ht="12.75">
       <c r="A532" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B532" s="3">
         <v>1990</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="533" spans="1:3" ht="12.75">
       <c r="A533" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B533" s="3">
         <v>1995</v>
@@ -6680,7 +6680,7 @@
     </row>
     <row r="534" spans="1:3" ht="12.75">
       <c r="A534" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B534" s="3">
         <v>2000</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="535" spans="1:3" ht="12.75">
       <c r="A535" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B535" s="3">
         <v>2015</v>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="536" spans="1:3" ht="12.75">
       <c r="A536" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B536" s="3">
         <v>1995</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="537" spans="1:3" ht="12.75">
       <c r="A537" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B537" s="3">
         <v>2000</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="538" spans="1:3" ht="12.75">
       <c r="A538" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B538" s="3">
         <v>2005</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="539" spans="1:3" ht="12.75">
       <c r="A539" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B539" s="3">
         <v>2015</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="540" spans="1:3" ht="12.75">
       <c r="A540" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B540" s="3">
         <v>1990</v>
@@ -8055,8 +8055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8078,7 +8078,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8086,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
